--- a/src/main/resources/superiorities.xlsx
+++ b/src/main/resources/superiorities.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\code\training\gboh-companion\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D616262-93DB-4E41-9111-878EC817B323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6DEFC6-11A1-4228-88FD-57F543034148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="superiority" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="19">
   <si>
     <t>Source</t>
   </si>
@@ -74,12 +74,15 @@
   </si>
   <si>
     <t>LP</t>
+  </si>
+  <si>
+    <t>SKp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -913,16 +916,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:N15"/>
+      <selection activeCell="F5" sqref="A1:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,25 +951,28 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -994,8 +1000,11 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1017,8 +1026,11 @@
       <c r="M3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1029,16 +1041,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1048,14 +1063,17 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1071,11 +1089,14 @@
       <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1091,11 +1112,11 @@
       <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1111,9 +1132,6 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
@@ -1121,10 +1139,13 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1149,9 +1170,6 @@
       <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
@@ -1167,74 +1185,92 @@
       <c r="N9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
       </c>
       <c r="N10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="M11" t="s">
-        <v>14</v>
+      <c r="I11" t="s">
+        <v>13</v>
       </c>
       <c r="N11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="N12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
       <c r="J13" t="s">
         <v>14</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
       </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="N13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
